--- a/excel-data/Womens-data.xlsx
+++ b/excel-data/Womens-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.joe.haboc\Desktop\Polder\the_odin_project\shop-app\excel-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494A5AD3-824A-470A-84FA-5A7A77C2738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2F7526-941F-4946-A534-D7C079F5873B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{396A1619-57F6-43F3-8F40-86B20DB13A4D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'output (4)'!$A$1:$D$8</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'output (4)'!$A$1:$E$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Blue Tanktop</t>
   </si>
@@ -103,16 +103,105 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1839904/pexels-photo-1839904.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Teal Pink and Purple Button-up Shirt</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1021693/pexels-photo-1021693.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Black Longsleeve Shirt with White Polkadots</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1844012/pexels-photo-1844012.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Shirt with Stripes </t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/2071856/pexels-photo-2071856.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Green Crop Top</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1036623/pexels-photo-1036623.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Pink Collared Half-sleeved Top</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1735671/pexels-photo-1735671.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Pink Longsleeve</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/2331101/pexels-photo-2331101.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Black Crew Neck T-shirt</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/975008/pexels-photo-975008.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>White with blue and red striped Shirt</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/12189034/pexels-photo-12189034.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Mint Green colored Dress</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/12189044/pexels-photo-12189044.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>White Longsleeve</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/12186931/pexels-photo-12186931.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Striped Dress</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/884979/pexels-photo-884979.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>White and Yellow Scoop-neck Mini Dress</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/9007318/pexels-photo-9007318.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Red Dress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,13 +224,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -159,10 +251,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{29B9DD9F-7B3E-472D-B699-FBFD16617813}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1._id" tableColumnId="1"/>
       <queryTableField id="2" name="Column1.name" tableColumnId="2"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="3" name="Column1.imageUrl" tableColumnId="3"/>
       <queryTableField id="4" name="Column1.price" tableColumnId="4"/>
     </queryTableFields>
@@ -171,11 +264,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84C4104-1199-4B4D-8254-5FC5ACD79887}" name="output__4" displayName="output__4" ref="A1:D8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{F84C4104-1199-4B4D-8254-5FC5ACD79887}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F84C4104-1199-4B4D-8254-5FC5ACD79887}" name="output__4" displayName="output__4" ref="A1:E23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E23" xr:uid="{F84C4104-1199-4B4D-8254-5FC5ACD79887}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6FD2AE4F-6457-41FB-95E2-7FED3780389E}" uniqueName="1" name="title" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{EAF45799-2B86-4A32-B093-E8C9D19A538B}" uniqueName="2" name="name" queryTableFieldId="2"/>
+    <tableColumn id="5" xr3:uid="{C333AA38-C414-4258-9FE6-4F7E7A083584}" uniqueName="5" name="description" queryTableFieldId="5"/>
     <tableColumn id="3" xr3:uid="{DC616D1A-3D8E-4E49-BEB5-A92480822C93}" uniqueName="3" name="imageUrl" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{D2069C9F-6FA0-43AC-BB7D-2C61C73C1006}" uniqueName="4" name="price" queryTableFieldId="4"/>
   </tableColumns>
@@ -480,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382EC6A8-51CF-47D6-B50E-F119EED86B30}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,7 +588,7 @@
     <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -502,115 +596,303 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{232C2E2E-4B6C-4068-9725-902AEF3AF9E1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/excel-data/Womens-data.xlsx
+++ b/excel-data/Womens-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.joe.haboc\Desktop\Polder\the_odin_project\shop-app\excel-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2F7526-941F-4946-A534-D7C079F5873B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD139AA5-F0A2-4D59-8825-1D4E9D0A03DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{396A1619-57F6-43F3-8F40-86B20DB13A4D}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Blue Tanktop</t>
   </si>
@@ -184,13 +184,49 @@
   </si>
   <si>
     <t>Red Dress</t>
+  </si>
+  <si>
+    <t>A fun and comfortable sport tank top, which is best worn under a t-shirt or shirt. It is a subtle and elegant piece that is great to wear in the summer time.</t>
+  </si>
+  <si>
+    <t>Floral Blouse is a beautiful and simple blouse that can be made with fabric bought or with hand-dyed fabric.</t>
+  </si>
+  <si>
+    <t>If you're looking for something special for a special occasion, check out this floral dress. I'm sure you'll love it.</t>
+  </si>
+  <si>
+    <t>This dress is perfect for a casual party.</t>
+  </si>
+  <si>
+    <t>This striped sweater is perfect for the fall and winter cold. It is a basic, yet stylish design.</t>
+  </si>
+  <si>
+    <t>Track suits are the perfect combination of comfort and elegance. This yellow track suit is a great choice for you.</t>
+  </si>
+  <si>
+    <t>Finding a white blouse that fits perfectly can be tricky, but when you do, it's a wardrobe essential you will enjoy for many seasons.</t>
+  </si>
+  <si>
+    <t>Wear this cute button-up shirt!</t>
+  </si>
+  <si>
+    <t>This would be a great shirt for the upcoming summer season. The shirt features a button up front, with a polka dot pattern on the sleeves.</t>
+  </si>
+  <si>
+    <t>What better way to start the day than to be greeted by your partner in bed, shirtless and wearing a white shirt with stripes?</t>
+  </si>
+  <si>
+    <t>The Green Crop Top is a great addition to your wardrobe this season. Wear it with a pair of skinny jeans and boots for a casual look.</t>
+  </si>
+  <si>
+    <t>This pink half-sleeved top can be worn with a variety of different styles. Moreover, this item is suitable for ladies.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +241,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2937"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,9 +270,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -577,7 +620,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,6 +655,9 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
@@ -626,6 +672,9 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -640,6 +689,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -654,6 +706,9 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -668,6 +723,9 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -682,6 +740,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -696,6 +757,9 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -710,6 +774,9 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
@@ -724,6 +791,9 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
@@ -738,6 +808,9 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
@@ -752,6 +825,9 @@
       <c r="B12" t="s">
         <v>27</v>
       </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -765,6 +841,9 @@
       </c>
       <c r="B13" t="s">
         <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
